--- a/pagedb/src/test/testfile/novels2.xlsx
+++ b/pagedb/src/test/testfile/novels2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="39">
   <si>
     <t>一念永恒</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>冰冷与黑暗并存的宇宙深处，九具庞大的龙尸拉着一口青铜古棺，亘古长存。这是太空探测器在枯寂的宇宙中捕捉到的一幅极其震撼的画面。九龙拉棺，究竟是回到了上古，还是来到了星空的彼岸？一个浩大的仙侠世界，光怪陆离，神秘无尽。热血似火山沸腾，激情若瀚海汹涌，欲望如深渊无止境……登天路，踏歌行，弹指遮天。</t>
-  </si>
-  <si>
-    <t>ccxs</t>
   </si>
 </sst>
 </file>
@@ -180,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,7 +185,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -199,13 +208,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -216,13 +231,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -233,13 +254,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -250,13 +277,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -267,13 +300,19 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -284,13 +323,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -301,13 +346,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -318,12 +369,483 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
         <v>38</v>
       </c>
     </row>
